--- a/RPAControl/data/data.xlsx
+++ b/RPAControl/data/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162743AA-8AD8-4044-BDC6-55F106AE112E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="robot" sheetId="1" r:id="rId1"/>
@@ -64,30 +65,28 @@
     <t>描述：20191231-001</t>
   </si>
   <si>
+    <t>编 辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人值守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20191231-102c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20191231-101c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编 辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无人值守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -248,6 +247,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -283,6 +299,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,11 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -504,16 +537,16 @@
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -527,16 +560,16 @@
     </row>
     <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -550,16 +583,16 @@
     </row>
     <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -962,7 +995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
